--- a/www/ig/fhir/ror/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/www/ig/fhir/ror/ValueSet-ror-usage-context-type-vs.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
     <sheet name="Include #2" r:id="rId6" sheetId="4"/>
     <sheet name="Include #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,10 +58,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T14:32:19+00:00</t>
+    <t>2025-03-17T13:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +116,9 @@
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/usage-context-type</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/usage-context-ror-codesystem</t>
   </si>
   <si>
     <t>Concept</t>
@@ -328,66 +335,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -409,28 +418,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -452,32 +461,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -499,10 +504,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -513,15 +518,15 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>36</v>
@@ -546,10 +551,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -560,18 +565,65 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/ror/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/www/ig/fhir/ror/ValueSet-ror-usage-context-type-vs.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:25:57+00:00</t>
+    <t>2025-07-30T09:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
